--- a/biology/Botanique/Georg_Friedrich_von_Jäger/Georg_Friedrich_von_Jäger.xlsx
+++ b/biology/Botanique/Georg_Friedrich_von_Jäger/Georg_Friedrich_von_Jäger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georg_Friedrich_von_J%C3%A4ger</t>
+          <t>Georg_Friedrich_von_Jäger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Friedrich von Jäger, né à Stuttgart le 25 décembre 1785 et mort dans cette même ville le 10 septembre 1866 (à 80 ans), est un médecin, paléontologue et botaniste wurtembergeois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georg_Friedrich_von_J%C3%A4ger</t>
+          <t>Georg_Friedrich_von_Jäger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georg_Friedrich_von_J%C3%A4ger</t>
+          <t>Georg_Friedrich_von_Jäger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1835. Über die fossilen Säugethiere, welche in Württemberg in verschiedenen Formationen aufgefunden worden sind, nebst geognostischen Bemerkungen über diese Formationen (Foss. Säug. Württ.), volume 1.</t>
         </is>
